--- a/mockup_data.xlsx
+++ b/mockup_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skylee/Documents/GitHub/h2h/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skylee/Documents/GitHub/h2h/H2H-Mar-17-CaffeinatedCoders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BF5984-1DFB-FD4A-9DA6-5DC84626DC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBD393B-1F4C-434B-9B3A-BA7B6A8DCF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32480" yWindow="1100" windowWidth="28040" windowHeight="16940" xr2:uid="{F03B44BD-0B43-3845-89A9-A26552779451}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F03B44BD-0B43-3845-89A9-A26552779451}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>Product</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Wordtune</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -589,566 +592,716 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2F42A0-1236-F342-9062-8A3676DD5E30}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>49886</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>60656</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>12823</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>83399</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>92672</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>68408</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>31180</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>49562</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>39427</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>45106</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>15155</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>15562</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>20777</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>27158</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>58400</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>25099</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>13617</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>63380</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>90058</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>65538</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>22461</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>66234</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>58100</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>41146</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>32375</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>16401</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>80177</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>52681</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>46736</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>43130</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>43</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>3</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>28296</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>79189</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>60220</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>57171</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>92359</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>18491</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>38422</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>61162</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>55634</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>52</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>3</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>88289</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>53</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>3</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>77160</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>3</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>19463</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>11032</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>36345</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>18636</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>28650</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>27249</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>16468</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>34466</v>
       </c>
     </row>
